--- a/Análisis de Recursos Humanos y Satisfacción Laboral/bd_integrantes_Esp.xlsx
+++ b/Análisis de Recursos Humanos y Satisfacción Laboral/bd_integrantes_Esp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\OneDrive\Desktop\Proyectois power Bi\Análisis de Recursos Humanos y Satisfacción Laboral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790AFC4A-AF12-4C1D-9BA7-6F2A53AA12E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B885D886-6A2F-4FB5-A2D9-BA96B6B12813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="integrantes" sheetId="6" r:id="rId1"/>
@@ -1428,9 +1428,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
@@ -1924,10 +1923,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2291,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FBB827-4483-46E1-B977-B741481D7925}">
   <dimension ref="A1:N208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="F163" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2300,12 +2298,12 @@
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" style="5" customWidth="1"/>
+    <col min="4" max="4" width="31" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="31" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
@@ -2322,10 +2320,10 @@
       <c r="C1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>465</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2334,10 +2332,10 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>430</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2366,22 +2364,21 @@
       <c r="C2" s="1">
         <v>5060</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>30092</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>42248</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2408,22 +2405,24 @@
       <c r="C3" s="1">
         <v>3520</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>27749</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>42038</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3">
+        <v>44713</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2450,22 +2449,21 @@
       <c r="C4" s="1">
         <v>4400</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>26406</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>42922</v>
       </c>
-      <c r="I4" s="2"/>
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2492,22 +2490,21 @@
       <c r="C5" s="1">
         <v>3960</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>34624</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>43408</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2534,22 +2531,21 @@
       <c r="C6" s="1">
         <v>3520</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>31263</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>43006</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2576,22 +2572,21 @@
       <c r="C7" s="1">
         <v>4400</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>28890</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>43073</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2618,22 +2613,24 @@
       <c r="C8" s="1">
         <v>3300</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>33108</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>42600</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="3">
+        <v>44661</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2660,22 +2657,24 @@
       <c r="C9" s="1">
         <v>3520</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>34342</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>42922</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3">
+        <v>44035</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2702,22 +2701,24 @@
       <c r="C10" s="1">
         <v>5445</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>31284</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>43623</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="3">
+        <v>45157</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2744,22 +2745,21 @@
       <c r="C11" s="1">
         <v>4840</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>30358</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>42551</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2786,22 +2786,21 @@
       <c r="C12" s="1">
         <v>5280</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>31486</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>42248</v>
       </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2828,22 +2827,21 @@
       <c r="C13" s="1">
         <v>3520</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>35091</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>42600</v>
       </c>
-      <c r="I13" s="2"/>
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2870,22 +2868,21 @@
       <c r="C14" s="1">
         <v>4620</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>31078</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>41912</v>
       </c>
-      <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2912,22 +2909,21 @@
       <c r="C15" s="1">
         <v>5060</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>29046</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>42684</v>
       </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2954,22 +2950,21 @@
       <c r="C16" s="1">
         <v>3740</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>32900</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>42588</v>
       </c>
-      <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2996,22 +2991,21 @@
       <c r="C17" s="1">
         <v>3520</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>26864</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>42054</v>
       </c>
-      <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
         <v>8</v>
       </c>
@@ -3038,22 +3032,21 @@
       <c r="C18" s="1">
         <v>5280</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>26423</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>42418</v>
       </c>
-      <c r="I18" s="2"/>
       <c r="J18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3080,22 +3073,21 @@
       <c r="C19" s="1">
         <v>3300</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>30171</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>42588</v>
       </c>
-      <c r="I19" s="2"/>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3122,22 +3114,21 @@
       <c r="C20" s="1">
         <v>3685</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>33428</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>42038</v>
       </c>
-      <c r="I20" s="2"/>
       <c r="J20" s="1" t="s">
         <v>8</v>
       </c>
@@ -3164,22 +3155,21 @@
       <c r="C21" s="1">
         <v>4180</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>33130</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>43188</v>
       </c>
-      <c r="I21" s="2"/>
       <c r="J21" s="1" t="s">
         <v>8</v>
       </c>
@@ -3206,22 +3196,21 @@
       <c r="C22" s="1">
         <v>3300</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>30821</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>42041</v>
       </c>
-      <c r="I22" s="2"/>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3248,22 +3237,21 @@
       <c r="C23" s="1">
         <v>4400</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>28437</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>42135</v>
       </c>
-      <c r="I23" s="2"/>
       <c r="J23" s="1" t="s">
         <v>8</v>
       </c>
@@ -3290,22 +3278,24 @@
       <c r="C24" s="1">
         <v>3740</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>33492</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>42254</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="3">
+        <v>43221</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3332,22 +3322,24 @@
       <c r="C25" s="1">
         <v>4400</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>30276</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>41789</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="3">
+        <v>45135</v>
+      </c>
       <c r="J25" s="1" t="s">
         <v>8</v>
       </c>
@@ -3374,22 +3366,24 @@
       <c r="C26" s="1">
         <v>4180</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>32695</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>31</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>42588</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="3">
+        <v>45049</v>
+      </c>
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
@@ -3416,22 +3410,21 @@
       <c r="C27" s="1">
         <v>3740</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>31738</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>40308</v>
       </c>
-      <c r="I27" s="2"/>
       <c r="J27" s="1" t="s">
         <v>8</v>
       </c>
@@ -3458,22 +3451,24 @@
       <c r="C28" s="1">
         <v>3740</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>28986</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>42</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>42886</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="3">
+        <v>45640</v>
+      </c>
       <c r="J28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3500,22 +3495,21 @@
       <c r="C29" s="1">
         <v>4840</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>32277</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>33</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>42782</v>
       </c>
-      <c r="I29" s="2"/>
       <c r="J29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3542,22 +3536,24 @@
       <c r="C30" s="1">
         <v>3300</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>30544</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>43006</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="3">
+        <v>43363</v>
+      </c>
       <c r="J30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3584,22 +3580,21 @@
       <c r="C31" s="1">
         <v>4620</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>34238</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>27</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>40725</v>
       </c>
-      <c r="I31" s="2"/>
       <c r="J31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3626,22 +3621,21 @@
       <c r="C32" s="1">
         <v>4840</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>27693</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>41732</v>
       </c>
-      <c r="I32" s="2"/>
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
@@ -3668,22 +3662,21 @@
       <c r="C33" s="1">
         <v>4290</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>31016</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>43073</v>
       </c>
-      <c r="I33" s="2"/>
       <c r="J33" s="1" t="s">
         <v>8</v>
       </c>
@@ -3710,22 +3703,21 @@
       <c r="C34" s="1">
         <v>3300</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>30446</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>42041</v>
       </c>
-      <c r="I34" s="2"/>
       <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
@@ -3752,22 +3744,21 @@
       <c r="C35" s="1">
         <v>4620</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>31816</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>42138</v>
       </c>
-      <c r="I35" s="2"/>
       <c r="J35" s="1" t="s">
         <v>8</v>
       </c>
@@ -3794,22 +3785,21 @@
       <c r="C36" s="1">
         <v>3300</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>32695</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>31</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>42373</v>
       </c>
-      <c r="I36" s="2"/>
       <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3836,22 +3826,24 @@
       <c r="C37" s="1">
         <v>4620</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>34248</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>27</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>43006</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="3">
+        <v>45447</v>
+      </c>
       <c r="J37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3878,22 +3870,21 @@
       <c r="C38" s="1">
         <v>3080</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>26890</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>47</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>42138</v>
       </c>
-      <c r="I38" s="2"/>
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
@@ -3920,22 +3911,21 @@
       <c r="C39" s="1">
         <v>3687</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>32342</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>32</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <v>42054</v>
       </c>
-      <c r="I39" s="2"/>
       <c r="J39" s="1" t="s">
         <v>8</v>
       </c>
@@ -3962,22 +3952,21 @@
       <c r="C40" s="1">
         <v>4400</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>32174</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>33</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <v>42824</v>
       </c>
-      <c r="I40" s="2"/>
       <c r="J40" s="1" t="s">
         <v>8</v>
       </c>
@@ -4004,22 +3993,24 @@
       <c r="C41" s="1">
         <v>3465</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>30040</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>39</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <v>43220</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="3">
+        <v>44069</v>
+      </c>
       <c r="J41" s="1" t="s">
         <v>8</v>
       </c>
@@ -4046,22 +4037,24 @@
       <c r="C42" s="1">
         <v>4675</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>29005</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>41</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <v>43018</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" s="3">
+        <v>43898</v>
+      </c>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
@@ -4088,22 +4081,21 @@
       <c r="C43" s="1">
         <v>4620</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>30552</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>37</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <v>42824</v>
       </c>
-      <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
         <v>8</v>
       </c>
@@ -4130,22 +4122,21 @@
       <c r="C44" s="1">
         <v>5280</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>32184</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>33</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <v>41774</v>
       </c>
-      <c r="I44" s="2"/>
       <c r="J44" s="1" t="s">
         <v>8</v>
       </c>
@@ -4172,22 +4163,21 @@
       <c r="C45" s="1">
         <v>4180</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>25305</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>52</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <v>42886</v>
       </c>
-      <c r="I45" s="2"/>
       <c r="J45" s="1" t="s">
         <v>8</v>
       </c>
@@ -4214,22 +4204,21 @@
       <c r="C46" s="1">
         <v>3520</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>29901</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>39</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <v>42642</v>
       </c>
-      <c r="I46" s="2"/>
       <c r="J46" s="1" t="s">
         <v>8</v>
       </c>
@@ -4256,22 +4245,21 @@
       <c r="C47" s="1">
         <v>3520</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>24276</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>54</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <v>42886</v>
       </c>
-      <c r="I47" s="2"/>
       <c r="J47" s="1" t="s">
         <v>8</v>
       </c>
@@ -4298,22 +4286,21 @@
       <c r="C48" s="1">
         <v>4840</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>32945</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>31</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <v>42782</v>
       </c>
-      <c r="I48" s="2"/>
       <c r="J48" s="1" t="s">
         <v>8</v>
       </c>
@@ -4340,22 +4327,21 @@
       <c r="C49" s="1">
         <v>4840</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>32190</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>33</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>42642</v>
       </c>
-      <c r="I49" s="2"/>
       <c r="J49" s="1" t="s">
         <v>8</v>
       </c>
@@ -4382,22 +4368,21 @@
       <c r="C50" s="1">
         <v>4840</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>23371</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>53</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <v>42600</v>
       </c>
-      <c r="I50" s="2"/>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
@@ -4424,22 +4409,21 @@
       <c r="C51" s="1">
         <v>4840</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>34119</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>27</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <v>41707</v>
       </c>
-      <c r="I51" s="2"/>
       <c r="J51" s="1" t="s">
         <v>8</v>
       </c>
@@ -4466,22 +4450,24 @@
       <c r="C52" s="1">
         <v>4620</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>32095</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>33</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <v>43073</v>
       </c>
-      <c r="I52" s="2"/>
+      <c r="I52" s="3">
+        <v>45110</v>
+      </c>
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
@@ -4508,22 +4494,21 @@
       <c r="C53" s="1">
         <v>5060</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>33516</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>29</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <v>42054</v>
       </c>
-      <c r="I53" s="2"/>
       <c r="J53" s="1" t="s">
         <v>8</v>
       </c>
@@ -4550,22 +4535,21 @@
       <c r="C54" s="1">
         <v>3740</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>35598</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>23</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <v>42684</v>
       </c>
-      <c r="I54" s="2"/>
       <c r="J54" s="1" t="s">
         <v>8</v>
       </c>
@@ -4592,22 +4576,21 @@
       <c r="C55" s="1">
         <v>4180</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>32598</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>32</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <v>42229</v>
       </c>
-      <c r="I55" s="2"/>
       <c r="J55" s="1" t="s">
         <v>8</v>
       </c>
@@ -4634,22 +4617,21 @@
       <c r="C56" s="1">
         <v>3080</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>30234</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>38</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3">
         <v>42782</v>
       </c>
-      <c r="I56" s="2"/>
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
@@ -4676,22 +4658,24 @@
       <c r="C57" s="1">
         <v>3740</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>33425</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>29</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <v>42886</v>
       </c>
-      <c r="I57" s="2"/>
+      <c r="I57" s="3">
+        <v>44251</v>
+      </c>
       <c r="J57" s="1" t="s">
         <v>8</v>
       </c>
@@ -4718,22 +4702,24 @@
       <c r="C58" s="1">
         <v>3740</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>28755</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>42</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="3">
         <v>41389</v>
       </c>
-      <c r="I58" s="2"/>
+      <c r="I58" s="3">
+        <v>42427</v>
+      </c>
       <c r="J58" s="1" t="s">
         <v>8</v>
       </c>
@@ -4760,22 +4746,24 @@
       <c r="C59" s="1">
         <v>5390</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>25600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>51</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <v>42684</v>
       </c>
-      <c r="I59" s="2"/>
+      <c r="I59" s="3">
+        <v>43186</v>
+      </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4802,22 +4790,21 @@
       <c r="C60" s="1">
         <v>3960</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>31154</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>36</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <v>42588</v>
       </c>
-      <c r="I60" s="2"/>
       <c r="J60" s="1" t="s">
         <v>8</v>
       </c>
@@ -4844,22 +4831,24 @@
       <c r="C61" s="1">
         <v>4620</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>26013</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>50</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <v>42642</v>
       </c>
-      <c r="I61" s="2"/>
+      <c r="I61" s="3">
+        <v>43148</v>
+      </c>
       <c r="J61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4886,22 +4875,21 @@
       <c r="C62" s="1">
         <v>5280</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>33784</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>28</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3">
         <v>42551</v>
       </c>
-      <c r="I62" s="2"/>
       <c r="J62" s="1" t="s">
         <v>8</v>
       </c>
@@ -4928,22 +4916,21 @@
       <c r="C63" s="1">
         <v>3080</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>32013</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>33</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3">
         <v>41912</v>
       </c>
-      <c r="I63" s="2"/>
       <c r="J63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4970,22 +4957,24 @@
       <c r="C64" s="1">
         <v>4400</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>32421</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>32</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3">
         <v>41765</v>
       </c>
-      <c r="I64" s="2"/>
+      <c r="I64" s="3">
+        <v>43495</v>
+      </c>
       <c r="J64" s="1" t="s">
         <v>8</v>
       </c>
@@ -5012,22 +5001,21 @@
       <c r="C65" s="1">
         <v>3520</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>20485</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>52</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <v>43006</v>
       </c>
-      <c r="I65" s="2"/>
       <c r="J65" s="1" t="s">
         <v>8</v>
       </c>
@@ -5054,22 +5042,21 @@
       <c r="C66" s="1">
         <v>4345</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>33879</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>28</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="3">
         <v>43623</v>
       </c>
-      <c r="I66" s="2"/>
       <c r="J66" s="1" t="s">
         <v>8</v>
       </c>
@@ -5096,22 +5083,21 @@
       <c r="C67" s="1">
         <v>4180</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>34708</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>26</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <v>43188</v>
       </c>
-      <c r="I67" s="2"/>
       <c r="J67" s="1" t="s">
         <v>8</v>
       </c>
@@ -5138,22 +5124,21 @@
       <c r="C68" s="1">
         <v>5280</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>30032</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>39</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <v>41970</v>
       </c>
-      <c r="I68" s="2"/>
       <c r="J68" s="1" t="s">
         <v>8</v>
       </c>
@@ -5180,22 +5165,24 @@
       <c r="C69" s="1">
         <v>4180</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>29603</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>40</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <v>42642</v>
       </c>
-      <c r="I69" s="2"/>
+      <c r="I69" s="3">
+        <v>43760</v>
+      </c>
       <c r="J69" s="1" t="s">
         <v>8</v>
       </c>
@@ -5222,22 +5209,21 @@
       <c r="C70" s="1">
         <v>4400</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>29850</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>39</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <v>43188</v>
       </c>
-      <c r="I70" s="2"/>
       <c r="J70" s="1" t="s">
         <v>8</v>
       </c>
@@ -5264,22 +5250,21 @@
       <c r="C71" s="1">
         <v>4840</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>31008</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>36</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="3">
         <v>42782</v>
       </c>
-      <c r="I71" s="2"/>
       <c r="J71" s="1" t="s">
         <v>8</v>
       </c>
@@ -5306,22 +5291,24 @@
       <c r="C72" s="1">
         <v>4180</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>31967</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>33</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="3">
         <v>43220</v>
       </c>
-      <c r="I72" s="2"/>
+      <c r="I72" s="3">
+        <v>43911</v>
+      </c>
       <c r="J72" s="1" t="s">
         <v>8</v>
       </c>
@@ -5348,22 +5335,24 @@
       <c r="C73" s="1">
         <v>4400</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>33027</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>30</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="3">
         <v>43226</v>
       </c>
-      <c r="I73" s="2"/>
+      <c r="I73" s="3">
+        <v>43698</v>
+      </c>
       <c r="J73" s="1" t="s">
         <v>8</v>
       </c>
@@ -5390,22 +5379,21 @@
       <c r="C74" s="1">
         <v>4840</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <v>32377</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>32</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="3">
         <v>42588</v>
       </c>
-      <c r="I74" s="2"/>
       <c r="J74" s="1" t="s">
         <v>8</v>
       </c>
@@ -5432,22 +5420,21 @@
       <c r="C75" s="1">
         <v>4840</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>28824</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>42</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="3">
         <v>41970</v>
       </c>
-      <c r="I75" s="2"/>
       <c r="J75" s="1" t="s">
         <v>8</v>
       </c>
@@ -5474,22 +5461,21 @@
       <c r="C76" s="1">
         <v>3520</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <v>27300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <v>46</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="3">
         <v>41949</v>
       </c>
-      <c r="I76" s="2"/>
       <c r="J76" s="1" t="s">
         <v>8</v>
       </c>
@@ -5516,22 +5502,21 @@
       <c r="C77" s="1">
         <v>3300</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>26362</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>49</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="3">
         <v>42373</v>
       </c>
-      <c r="I77" s="2"/>
       <c r="J77" s="1" t="s">
         <v>8</v>
       </c>
@@ -5558,22 +5543,21 @@
       <c r="C78" s="1">
         <v>4400</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>26820</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <v>47</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="3">
         <v>43562</v>
       </c>
-      <c r="I78" s="2"/>
       <c r="J78" s="1" t="s">
         <v>8</v>
       </c>
@@ -5600,22 +5584,21 @@
       <c r="C79" s="1">
         <v>4840</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>27699</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>45</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="3">
         <v>41066</v>
       </c>
-      <c r="I79" s="2"/>
       <c r="J79" s="1" t="s">
         <v>8</v>
       </c>
@@ -5642,22 +5625,21 @@
       <c r="C80" s="1">
         <v>4400</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>29514</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>40</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="3">
         <v>43146</v>
       </c>
-      <c r="I80" s="2"/>
       <c r="J80" s="1" t="s">
         <v>8</v>
       </c>
@@ -5684,22 +5666,21 @@
       <c r="C81" s="1">
         <v>4620</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>30166</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>38</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="3">
         <v>43073</v>
       </c>
-      <c r="I81" s="2"/>
       <c r="J81" s="1" t="s">
         <v>8</v>
       </c>
@@ -5726,22 +5707,21 @@
       <c r="C82" s="1">
         <v>4400</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>27331</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <v>46</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="3">
         <v>42684</v>
       </c>
-      <c r="I82" s="2"/>
       <c r="J82" s="1" t="s">
         <v>8</v>
       </c>
@@ -5768,22 +5748,21 @@
       <c r="C83" s="1">
         <v>5280</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>29107</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>41</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="3">
         <v>42600</v>
       </c>
-      <c r="I83" s="2"/>
       <c r="J83" s="1" t="s">
         <v>8</v>
       </c>
@@ -5810,22 +5789,21 @@
       <c r="C84" s="1">
         <v>3740</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>30835</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <v>36</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="3">
         <v>42588</v>
       </c>
-      <c r="I84" s="2"/>
       <c r="J84" s="1" t="s">
         <v>8</v>
       </c>
@@ -5852,22 +5830,21 @@
       <c r="C85" s="1">
         <v>3344</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <v>29495</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <v>40</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="3">
         <v>42642</v>
       </c>
-      <c r="I85" s="2"/>
       <c r="J85" s="1" t="s">
         <v>8</v>
       </c>
@@ -5894,22 +5871,21 @@
       <c r="C86" s="1">
         <v>5400</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <v>24971</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>53</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="3">
         <v>42964</v>
       </c>
-      <c r="I86" s="2"/>
       <c r="J86" s="1" t="s">
         <v>8</v>
       </c>
@@ -5936,22 +5912,21 @@
       <c r="C87" s="1">
         <v>5400</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <v>33736</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <v>29</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="3">
         <v>42054</v>
       </c>
-      <c r="I87" s="2"/>
       <c r="J87" s="1" t="s">
         <v>8</v>
       </c>
@@ -5978,22 +5953,24 @@
       <c r="C88" s="1">
         <v>4250</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <v>34225</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="2">
         <v>27</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="3">
         <v>42964</v>
       </c>
-      <c r="I88" s="2"/>
+      <c r="I88" s="3">
+        <v>44698</v>
+      </c>
       <c r="J88" s="1" t="s">
         <v>8</v>
       </c>
@@ -6020,22 +5997,24 @@
       <c r="C89" s="1">
         <v>4250</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <v>27083</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <v>47</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="3">
         <v>41822</v>
       </c>
-      <c r="I89" s="2"/>
+      <c r="I89" s="3">
+        <v>44988</v>
+      </c>
       <c r="J89" s="1" t="s">
         <v>8</v>
       </c>
@@ -6062,22 +6041,24 @@
       <c r="C90" s="1">
         <v>5400</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <v>21893</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <v>52</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="3">
         <v>43073</v>
       </c>
-      <c r="I90" s="2"/>
+      <c r="I90" s="3">
+        <v>44581</v>
+      </c>
       <c r="J90" s="1" t="s">
         <v>8</v>
       </c>
@@ -6104,22 +6085,21 @@
       <c r="C91" s="1">
         <v>5400</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>34329</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2">
         <v>27</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <v>42124</v>
       </c>
-      <c r="I91" s="2"/>
       <c r="J91" s="1" t="s">
         <v>8</v>
       </c>
@@ -6146,22 +6126,21 @@
       <c r="C92" s="1">
         <v>5500</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>29261</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <v>41</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="3">
         <v>43006</v>
       </c>
-      <c r="I92" s="2"/>
       <c r="J92" s="1" t="s">
         <v>8</v>
       </c>
@@ -6188,22 +6167,24 @@
       <c r="C93" s="1">
         <v>5400</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <v>31915</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <v>34</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="3">
         <v>43220</v>
       </c>
-      <c r="I93" s="2"/>
+      <c r="I93" s="3">
+        <v>44299</v>
+      </c>
       <c r="J93" s="1" t="s">
         <v>8</v>
       </c>
@@ -6230,22 +6211,21 @@
       <c r="C94" s="1">
         <v>5350</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <v>34672</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <v>26</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="3">
         <v>41543</v>
       </c>
-      <c r="I94" s="2"/>
       <c r="J94" s="1" t="s">
         <v>8</v>
       </c>
@@ -6272,22 +6252,21 @@
       <c r="C95" s="1">
         <v>7500</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>35206</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <v>24</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="3">
         <v>41765</v>
       </c>
-      <c r="I95" s="2"/>
       <c r="J95" s="1" t="s">
         <v>8</v>
       </c>
@@ -6314,22 +6293,21 @@
       <c r="C96" s="1">
         <v>7500</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <v>34644</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <v>26</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="3">
         <v>42127</v>
       </c>
-      <c r="I96" s="2"/>
       <c r="J96" s="1" t="s">
         <v>8</v>
       </c>
@@ -6356,22 +6334,21 @@
       <c r="C97" s="1">
         <v>7500</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="3">
         <v>29407</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <v>40</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="3">
         <v>43006</v>
       </c>
-      <c r="I97" s="2"/>
       <c r="J97" s="1" t="s">
         <v>8</v>
       </c>
@@ -6398,22 +6375,21 @@
       <c r="C98" s="1">
         <v>8600</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <v>34191</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2">
         <v>27</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="3">
         <v>41912</v>
       </c>
-      <c r="I98" s="2"/>
       <c r="J98" s="1" t="s">
         <v>8</v>
       </c>
@@ -6440,22 +6416,24 @@
       <c r="C99" s="1">
         <v>8600</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="3">
         <v>25076</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <v>52</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="3">
         <v>41798</v>
       </c>
-      <c r="I99" s="2"/>
+      <c r="I99" s="3">
+        <v>44796</v>
+      </c>
       <c r="J99" s="1" t="s">
         <v>8</v>
       </c>
@@ -6482,22 +6460,21 @@
       <c r="C100" s="1">
         <v>8600</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="3">
         <v>34598</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="2">
         <v>26</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="3">
         <v>43146</v>
       </c>
-      <c r="I100" s="2"/>
       <c r="J100" s="1" t="s">
         <v>8</v>
       </c>
@@ -6524,22 +6501,21 @@
       <c r="C101" s="1">
         <v>8600</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="3">
         <v>29102</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="2">
         <v>41</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="3">
         <v>43073</v>
       </c>
-      <c r="I101" s="2"/>
       <c r="J101" s="1" t="s">
         <v>8</v>
       </c>
@@ -6566,22 +6542,21 @@
       <c r="C102" s="1">
         <v>8000</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="3">
         <v>31011</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="2">
         <v>36</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="3">
         <v>42600</v>
       </c>
-      <c r="I102" s="2"/>
       <c r="J102" s="1" t="s">
         <v>8</v>
       </c>
@@ -6608,22 +6583,21 @@
       <c r="C103" s="1">
         <v>8600</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="3">
         <v>27703</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="2">
         <v>45</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="3">
         <v>42138</v>
       </c>
-      <c r="I103" s="2"/>
       <c r="J103" s="1" t="s">
         <v>8</v>
       </c>
@@ -6650,22 +6624,21 @@
       <c r="C104" s="1">
         <v>8000</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="3">
         <v>32513</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="2">
         <v>32</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="3">
         <v>43623</v>
       </c>
-      <c r="I104" s="2"/>
       <c r="J104" s="1" t="s">
         <v>8</v>
       </c>
@@ -6692,22 +6665,21 @@
       <c r="C105" s="1">
         <v>8000</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="3">
         <v>34423</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="2">
         <v>27</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="3">
         <v>42588</v>
       </c>
-      <c r="I105" s="2"/>
       <c r="J105" s="1" t="s">
         <v>8</v>
       </c>
@@ -6734,22 +6706,21 @@
       <c r="C106" s="1">
         <v>10000</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="3">
         <v>35007</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <v>25</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="3">
         <v>42642</v>
       </c>
-      <c r="I106" s="2"/>
       <c r="J106" s="1" t="s">
         <v>8</v>
       </c>
@@ -6776,22 +6747,21 @@
       <c r="C107" s="1">
         <v>10500</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="3">
         <v>34209</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="2">
         <v>27</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="3">
         <v>42248</v>
       </c>
-      <c r="I107" s="2"/>
       <c r="J107" s="1" t="s">
         <v>8</v>
       </c>
@@ -6818,22 +6788,21 @@
       <c r="C108" s="1">
         <v>11200</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="3">
         <v>26677</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="2">
         <v>48</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="3">
         <v>40056</v>
       </c>
-      <c r="I108" s="2"/>
       <c r="J108" s="1" t="s">
         <v>8</v>
       </c>
@@ -6860,22 +6829,24 @@
       <c r="C109" s="1">
         <v>10250</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="3">
         <v>25753</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="2">
         <v>50</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="3">
         <v>43006</v>
       </c>
-      <c r="I109" s="2"/>
+      <c r="I109" s="3">
+        <v>44641</v>
+      </c>
       <c r="J109" s="1" t="s">
         <v>8</v>
       </c>
@@ -6902,22 +6873,24 @@
       <c r="C110" s="1">
         <v>13200</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="3">
         <v>32219</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="2">
         <v>33</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="3">
         <v>41029</v>
       </c>
-      <c r="I110" s="2"/>
+      <c r="I110" s="3">
+        <v>41584</v>
+      </c>
       <c r="J110" s="1" t="s">
         <v>8</v>
       </c>
@@ -6944,22 +6917,21 @@
       <c r="C111" s="1">
         <v>13200</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="3">
         <v>26008</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="2">
         <v>50</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H111" s="3">
         <v>42859</v>
       </c>
-      <c r="I111" s="2"/>
       <c r="J111" s="1" t="s">
         <v>8</v>
       </c>
@@ -6986,22 +6958,21 @@
       <c r="C112" s="1">
         <v>17600</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="3">
         <v>21813</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2">
         <v>52</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="3">
         <v>42041</v>
       </c>
-      <c r="I112" s="2"/>
       <c r="J112" s="1" t="s">
         <v>8</v>
       </c>
@@ -7028,22 +6999,21 @@
       <c r="C113" s="1">
         <v>11990</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="3">
         <v>26946</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="2">
         <v>47</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="3">
         <v>41646</v>
       </c>
-      <c r="I113" s="2"/>
       <c r="J113" s="1" t="s">
         <v>8</v>
       </c>
@@ -7070,22 +7040,21 @@
       <c r="C114" s="1">
         <v>12100</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="3">
         <v>32392</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="2">
         <v>32</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H114" s="4">
+      <c r="H114" s="3">
         <v>43492</v>
       </c>
-      <c r="I114" s="2"/>
       <c r="J114" s="1" t="s">
         <v>8</v>
       </c>
@@ -7112,22 +7081,21 @@
       <c r="C115" s="1">
         <v>11220</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <v>28821</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="2">
         <v>42</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="3">
         <v>42995</v>
       </c>
-      <c r="I115" s="2"/>
       <c r="J115" s="1" t="s">
         <v>8</v>
       </c>
@@ -7154,22 +7122,24 @@
       <c r="C116" s="1">
         <v>11880</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <v>31722</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="2">
         <v>34</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H116" s="3">
         <v>43136</v>
       </c>
-      <c r="I116" s="2"/>
+      <c r="I116" s="3">
+        <v>44409</v>
+      </c>
       <c r="J116" s="1" t="s">
         <v>8</v>
       </c>
@@ -7196,22 +7166,21 @@
       <c r="C117" s="1">
         <v>12100</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="3">
         <v>31710</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="2">
         <v>34</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="3">
         <v>42642</v>
       </c>
-      <c r="I117" s="2"/>
       <c r="J117" s="1" t="s">
         <v>8</v>
       </c>
@@ -7238,22 +7207,21 @@
       <c r="C118" s="1">
         <v>11660</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="3">
         <v>31692</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2">
         <v>34</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="3">
         <v>42232</v>
       </c>
-      <c r="I118" s="2"/>
       <c r="J118" s="1" t="s">
         <v>8</v>
       </c>
@@ -7280,22 +7248,21 @@
       <c r="C119" s="1">
         <v>11440</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="3">
         <v>29492</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="2">
         <v>40</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="3">
         <v>42044</v>
       </c>
-      <c r="I119" s="2"/>
       <c r="J119" s="1" t="s">
         <v>8</v>
       </c>
@@ -7322,22 +7289,21 @@
       <c r="C120" s="1">
         <v>11660</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="3">
         <v>29570</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="2">
         <v>40</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H120" s="4">
+      <c r="H120" s="3">
         <v>41474</v>
       </c>
-      <c r="I120" s="2"/>
       <c r="J120" s="1" t="s">
         <v>8</v>
       </c>
@@ -7364,22 +7330,21 @@
       <c r="C121" s="1">
         <v>12100</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="3">
         <v>30402</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="2">
         <v>38</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="3">
         <v>41121</v>
       </c>
-      <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
         <v>8</v>
       </c>
@@ -7406,22 +7371,21 @@
       <c r="C122" s="1">
         <v>5500</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="3">
         <v>31079</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="2">
         <v>36</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H122" s="4">
+      <c r="H122" s="3">
         <v>42127</v>
       </c>
-      <c r="I122" s="2"/>
       <c r="J122" s="1" t="s">
         <v>8</v>
       </c>
@@ -7448,22 +7412,21 @@
       <c r="C123" s="1">
         <v>5500</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="3">
         <v>27249</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="2">
         <v>46</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="3">
         <v>42922</v>
       </c>
-      <c r="I123" s="2"/>
       <c r="J123" s="1" t="s">
         <v>8</v>
       </c>
@@ -7490,22 +7453,21 @@
       <c r="C124" s="1">
         <v>5720</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <v>30956</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="2">
         <v>36</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H124" s="4">
+      <c r="H124" s="3">
         <v>42038</v>
       </c>
-      <c r="I124" s="2"/>
       <c r="J124" s="1" t="s">
         <v>8</v>
       </c>
@@ -7532,22 +7494,21 @@
       <c r="C125" s="1">
         <v>5335</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <v>33382</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="2">
         <v>29</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H125" s="4">
+      <c r="H125" s="3">
         <v>43073</v>
       </c>
-      <c r="I125" s="2"/>
       <c r="J125" s="1" t="s">
         <v>8</v>
       </c>
@@ -7574,22 +7535,21 @@
       <c r="C126" s="1">
         <v>5940</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="3">
         <v>35658</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="2">
         <v>23</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H126" s="4">
+      <c r="H126" s="3">
         <v>41830</v>
       </c>
-      <c r="I126" s="2"/>
       <c r="J126" s="1" t="s">
         <v>8</v>
       </c>
@@ -7616,22 +7576,21 @@
       <c r="C127" s="1">
         <v>4840</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="3">
         <v>32982</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="2">
         <v>31</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H127" s="4">
+      <c r="H127" s="3">
         <v>43006</v>
       </c>
-      <c r="I127" s="2"/>
       <c r="J127" s="1" t="s">
         <v>8</v>
       </c>
@@ -7658,22 +7617,21 @@
       <c r="C128" s="1">
         <v>5940</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="3">
         <v>30580</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="2">
         <v>37</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H128" s="4">
+      <c r="H128" s="3">
         <v>42922</v>
       </c>
-      <c r="I128" s="2"/>
       <c r="J128" s="1" t="s">
         <v>8</v>
       </c>
@@ -7700,22 +7658,21 @@
       <c r="C129" s="1">
         <v>5500</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="3">
         <v>32814</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="2">
         <v>31</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H129" s="4">
+      <c r="H129" s="3">
         <v>43622</v>
       </c>
-      <c r="I129" s="2"/>
       <c r="J129" s="1" t="s">
         <v>8</v>
       </c>
@@ -7742,22 +7699,21 @@
       <c r="C130" s="1">
         <v>5742</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="3">
         <v>31863</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="2">
         <v>34</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H130" s="4">
+      <c r="H130" s="3">
         <v>42600</v>
       </c>
-      <c r="I130" s="2"/>
       <c r="J130" s="1" t="s">
         <v>8</v>
       </c>
@@ -7784,22 +7740,24 @@
       <c r="C131" s="1">
         <v>5806</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="3">
         <v>33199</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="2">
         <v>30</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H131" s="4">
+      <c r="H131" s="3">
         <v>43018</v>
       </c>
-      <c r="I131" s="2"/>
+      <c r="I131" s="3">
+        <v>44151</v>
+      </c>
       <c r="J131" s="1" t="s">
         <v>8</v>
       </c>
@@ -7826,22 +7784,21 @@
       <c r="C132" s="1">
         <v>4840</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="3">
         <v>25139</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="2">
         <v>52</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H132" s="4">
+      <c r="H132" s="3">
         <v>43006</v>
       </c>
-      <c r="I132" s="2"/>
       <c r="J132" s="1" t="s">
         <v>8</v>
       </c>
@@ -7868,22 +7825,21 @@
       <c r="C133" s="1">
         <v>5940</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="3">
         <v>26039</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="2">
         <v>50</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H133" s="4">
+      <c r="H133" s="3">
         <v>43667</v>
       </c>
-      <c r="I133" s="2"/>
       <c r="J133" s="1" t="s">
         <v>8</v>
       </c>
@@ -7910,22 +7866,21 @@
       <c r="C134" s="1">
         <v>5280</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="3">
         <v>34249</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="2">
         <v>27</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H134" s="4">
+      <c r="H134" s="3">
         <v>42684</v>
       </c>
-      <c r="I134" s="2"/>
       <c r="J134" s="1" t="s">
         <v>8</v>
       </c>
@@ -7952,22 +7907,21 @@
       <c r="C135" s="1">
         <v>4840</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="3">
         <v>30758</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="2">
         <v>37</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H135" s="4">
+      <c r="H135" s="3">
         <v>42588</v>
       </c>
-      <c r="I135" s="2"/>
       <c r="J135" s="1" t="s">
         <v>8</v>
       </c>
@@ -7994,22 +7948,21 @@
       <c r="C136" s="1">
         <v>5720</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="3">
         <v>29656</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="2">
         <v>40</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H136" s="4">
+      <c r="H136" s="3">
         <v>42248</v>
       </c>
-      <c r="I136" s="2"/>
       <c r="J136" s="1" t="s">
         <v>8</v>
       </c>
@@ -8036,22 +7989,21 @@
       <c r="C137" s="1">
         <v>6380</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="3">
         <v>33353</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="2">
         <v>30</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H137" s="4">
+      <c r="H137" s="3">
         <v>41515</v>
       </c>
-      <c r="I137" s="2"/>
       <c r="J137" s="1" t="s">
         <v>8</v>
       </c>
@@ -8078,22 +8030,21 @@
       <c r="C138" s="1">
         <v>5720</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="3">
         <v>30181</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="2">
         <v>38</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H138" s="4">
+      <c r="H138" s="3">
         <v>41732</v>
       </c>
-      <c r="I138" s="2"/>
       <c r="J138" s="1" t="s">
         <v>8</v>
       </c>
@@ -8120,22 +8071,21 @@
       <c r="C139" s="1">
         <v>4950</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="3">
         <v>33399</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="2">
         <v>29</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H139" s="4">
+      <c r="H139" s="3">
         <v>41765</v>
       </c>
-      <c r="I139" s="2"/>
       <c r="J139" s="1" t="s">
         <v>8</v>
       </c>
@@ -8162,22 +8112,21 @@
       <c r="C140" s="1">
         <v>5720</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="3">
         <v>33743</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="2">
         <v>28</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H140" s="4">
+      <c r="H140" s="3">
         <v>43188</v>
       </c>
-      <c r="I140" s="2"/>
       <c r="J140" s="1" t="s">
         <v>8</v>
       </c>
@@ -8204,22 +8153,24 @@
       <c r="C141" s="1">
         <v>4840</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="3">
         <v>29860</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="2">
         <v>39</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H141" s="3">
         <v>42964</v>
       </c>
-      <c r="I141" s="2"/>
+      <c r="I141" s="3">
+        <v>45508</v>
+      </c>
       <c r="J141" s="1" t="s">
         <v>8</v>
       </c>
@@ -8246,22 +8197,21 @@
       <c r="C142" s="1">
         <v>5500</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="3">
         <v>30937</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="2">
         <v>36</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H142" s="4">
+      <c r="H142" s="3">
         <v>41830</v>
       </c>
-      <c r="I142" s="2"/>
       <c r="J142" s="1" t="s">
         <v>8</v>
       </c>
@@ -8288,22 +8238,21 @@
       <c r="C143" s="1">
         <v>5940</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="3">
         <v>32365</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="2">
         <v>32</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H143" s="4">
+      <c r="H143" s="3">
         <v>42642</v>
       </c>
-      <c r="I143" s="2"/>
       <c r="J143" s="1" t="s">
         <v>8</v>
       </c>
@@ -8330,22 +8279,21 @@
       <c r="C144" s="1">
         <v>5500</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="3">
         <v>27507</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="2">
         <v>46</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H144" s="4">
+      <c r="H144" s="3">
         <v>42502</v>
       </c>
-      <c r="I144" s="2"/>
       <c r="J144" s="1" t="s">
         <v>8</v>
       </c>
@@ -8372,22 +8320,24 @@
       <c r="C145" s="1">
         <v>5335</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="3">
         <v>33181</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="2">
         <v>30</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="3">
         <v>42922</v>
       </c>
-      <c r="I145" s="2"/>
+      <c r="I145" s="3">
+        <v>44240</v>
+      </c>
       <c r="J145" s="1" t="s">
         <v>8</v>
       </c>
@@ -8414,22 +8364,21 @@
       <c r="C146" s="1">
         <v>5940</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="3">
         <v>34962</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="2">
         <v>25</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H146" s="4">
+      <c r="H146" s="3">
         <v>41732</v>
       </c>
-      <c r="I146" s="2"/>
       <c r="J146" s="1" t="s">
         <v>8</v>
       </c>
@@ -8456,22 +8405,21 @@
       <c r="C147" s="1">
         <v>5280</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="3">
         <v>34570</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="2">
         <v>26</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H147" s="4">
+      <c r="H147" s="3">
         <v>42922</v>
       </c>
-      <c r="I147" s="2"/>
       <c r="J147" s="1" t="s">
         <v>8</v>
       </c>
@@ -8498,22 +8446,21 @@
       <c r="C148" s="1">
         <v>6380</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="3">
         <v>28866</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="2">
         <v>42</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H148" s="4">
+      <c r="H148" s="3">
         <v>42502</v>
       </c>
-      <c r="I148" s="2"/>
       <c r="J148" s="1" t="s">
         <v>8</v>
       </c>
@@ -8540,22 +8487,21 @@
       <c r="C149" s="1">
         <v>4840</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="3">
         <v>32350</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="2">
         <v>32</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H149" s="4">
+      <c r="H149" s="3">
         <v>43006</v>
       </c>
-      <c r="I149" s="2"/>
       <c r="J149" s="1" t="s">
         <v>8</v>
       </c>
@@ -8582,22 +8528,21 @@
       <c r="C150" s="1">
         <v>5280</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="3">
         <v>33872</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="2">
         <v>28</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H150" s="4">
+      <c r="H150" s="3">
         <v>42782</v>
       </c>
-      <c r="I150" s="2"/>
       <c r="J150" s="1" t="s">
         <v>8</v>
       </c>
@@ -8624,22 +8569,21 @@
       <c r="C151" s="1">
         <v>6160</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="3">
         <v>35615</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="2">
         <v>23</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H151" s="4">
+      <c r="H151" s="3">
         <v>43225</v>
       </c>
-      <c r="I151" s="2"/>
       <c r="J151" s="1" t="s">
         <v>8</v>
       </c>
@@ -8666,22 +8610,24 @@
       <c r="C152" s="1">
         <v>5060</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="3">
         <v>29822</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="2">
         <v>39</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H152" s="4">
+      <c r="H152" s="3">
         <v>43682</v>
       </c>
-      <c r="I152" s="2"/>
+      <c r="I152" s="3">
+        <v>45299</v>
+      </c>
       <c r="J152" s="1" t="s">
         <v>8</v>
       </c>
@@ -8708,22 +8654,24 @@
       <c r="C153" s="1">
         <v>11880</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="3">
         <v>34807</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="2">
         <v>26</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H153" s="4">
+      <c r="H153" s="3">
         <v>42859</v>
       </c>
-      <c r="I153" s="2"/>
+      <c r="I153" s="3">
+        <v>43323</v>
+      </c>
       <c r="J153" s="1" t="s">
         <v>8</v>
       </c>
@@ -8750,22 +8698,21 @@
       <c r="C154" s="1">
         <v>12320</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="3">
         <v>32735</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="2">
         <v>31</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H154" s="4">
+      <c r="H154" s="3">
         <v>42872</v>
       </c>
-      <c r="I154" s="2"/>
       <c r="J154" s="1" t="s">
         <v>8</v>
       </c>
@@ -8792,22 +8739,21 @@
       <c r="C155" s="1">
         <v>12100</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="3">
         <v>32786</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="2">
         <v>31</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H155" s="4">
+      <c r="H155" s="3">
         <v>43586</v>
       </c>
-      <c r="I155" s="2"/>
       <c r="J155" s="1" t="s">
         <v>8</v>
       </c>
@@ -8834,22 +8780,24 @@
       <c r="C156" s="1">
         <v>6270</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="3">
         <v>33930</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="2">
         <v>28</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H156" s="4">
+      <c r="H156" s="3">
         <v>40843</v>
       </c>
-      <c r="I156" s="2"/>
+      <c r="I156" s="3">
+        <v>41850</v>
+      </c>
       <c r="J156" s="1" t="s">
         <v>8</v>
       </c>
@@ -8876,22 +8824,21 @@
       <c r="C157" s="1">
         <v>5060</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="3">
         <v>32623</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="2">
         <v>32</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H157" s="4">
+      <c r="H157" s="3">
         <v>42886</v>
       </c>
-      <c r="I157" s="2"/>
       <c r="J157" s="1" t="s">
         <v>8</v>
       </c>
@@ -8918,22 +8865,21 @@
       <c r="C158" s="1">
         <v>6380</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="3">
         <v>33246</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="2">
         <v>30</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H158" s="4">
+      <c r="H158" s="3">
         <v>43006</v>
       </c>
-      <c r="I158" s="2"/>
       <c r="J158" s="1" t="s">
         <v>8</v>
       </c>
@@ -8960,22 +8906,21 @@
       <c r="C159" s="1">
         <v>3643</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="3">
         <v>34107</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="2">
         <v>27</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H159" s="4">
+      <c r="H159" s="3">
         <v>43104</v>
       </c>
-      <c r="I159" s="2"/>
       <c r="J159" s="1" t="s">
         <v>8</v>
       </c>
@@ -9002,22 +8947,21 @@
       <c r="C160" s="1">
         <v>7500</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="3">
         <v>31385</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="2">
         <v>35</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H160" s="4">
+      <c r="H160" s="3">
         <v>43505</v>
       </c>
-      <c r="I160" s="2"/>
       <c r="J160" s="1" t="s">
         <v>8</v>
       </c>
@@ -9044,22 +8988,21 @@
       <c r="C161" s="1">
         <v>8000</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="3">
         <v>32240</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="2">
         <v>33</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H161" s="4">
+      <c r="H161" s="3">
         <v>43510</v>
       </c>
-      <c r="I161" s="2"/>
       <c r="J161" s="1" t="s">
         <v>8</v>
       </c>
@@ -9086,22 +9029,21 @@
       <c r="C162" s="1">
         <v>7500</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="3">
         <v>33899</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="2">
         <v>28</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H162" s="4">
+      <c r="H162" s="3">
         <v>43575</v>
       </c>
-      <c r="I162" s="2"/>
       <c r="J162" s="1" t="s">
         <v>8</v>
       </c>
@@ -9128,22 +9070,21 @@
       <c r="C163" s="1">
         <v>7500</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="3">
         <v>34514</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="2">
         <v>26</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H163" s="4">
+      <c r="H163" s="3">
         <v>43575</v>
       </c>
-      <c r="I163" s="2"/>
       <c r="J163" s="1" t="s">
         <v>8</v>
       </c>
@@ -9170,22 +9111,21 @@
       <c r="C164" s="1">
         <v>11150</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="3">
         <v>28369</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="2">
         <v>43</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H164" s="4">
+      <c r="H164" s="3">
         <v>43625</v>
       </c>
-      <c r="I164" s="2"/>
       <c r="J164" s="1" t="s">
         <v>8</v>
       </c>
@@ -9212,22 +9152,24 @@
       <c r="C165" s="1">
         <v>14300</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="3">
         <v>30922</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="2">
         <v>36</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H165" s="3">
         <v>41550</v>
       </c>
-      <c r="I165" s="2"/>
+      <c r="I165" s="3">
+        <v>45035</v>
+      </c>
       <c r="J165" s="1" t="s">
         <v>8</v>
       </c>
@@ -9254,22 +9196,21 @@
       <c r="C166" s="1">
         <v>12100</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="3">
         <v>28449</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="2">
         <v>43</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H166" s="3">
         <v>43465</v>
       </c>
-      <c r="I166" s="2"/>
       <c r="J166" s="1" t="s">
         <v>8</v>
       </c>
@@ -9296,22 +9237,21 @@
       <c r="C167" s="1">
         <v>7480</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="3">
         <v>32558</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="2">
         <v>32</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H167" s="4">
+      <c r="H167" s="3">
         <v>43188</v>
       </c>
-      <c r="I167" s="2"/>
       <c r="J167" s="1" t="s">
         <v>8</v>
       </c>
@@ -9338,22 +9278,24 @@
       <c r="C168" s="1">
         <v>8800</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="3">
         <v>33429</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="2">
         <v>29</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H168" s="4">
+      <c r="H168" s="3">
         <v>43220</v>
       </c>
-      <c r="I168" s="2"/>
+      <c r="I168" s="3">
+        <v>44894</v>
+      </c>
       <c r="J168" s="1" t="s">
         <v>8</v>
       </c>
@@ -9380,22 +9322,21 @@
       <c r="C169" s="1">
         <v>7810</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="3">
         <v>34065</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="2">
         <v>28</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H169" s="4">
+      <c r="H169" s="3">
         <v>43018</v>
       </c>
-      <c r="I169" s="2"/>
       <c r="J169" s="1" t="s">
         <v>8</v>
       </c>
@@ -9422,22 +9363,21 @@
       <c r="C170" s="1">
         <v>9405</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="3">
         <v>32766</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="2">
         <v>31</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H170" s="4">
+      <c r="H170" s="3">
         <v>43018</v>
       </c>
-      <c r="I170" s="2"/>
       <c r="J170" s="1" t="s">
         <v>8</v>
       </c>
@@ -9464,22 +9404,21 @@
       <c r="C171" s="1">
         <v>8701</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="3">
         <v>31725</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="2">
         <v>34</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H171" s="4">
+      <c r="H171" s="3">
         <v>43146</v>
       </c>
-      <c r="I171" s="2"/>
       <c r="J171" s="1" t="s">
         <v>8</v>
       </c>
@@ -9506,22 +9445,21 @@
       <c r="C172" s="1">
         <v>9284</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172" s="3">
         <v>33475</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="2">
         <v>29</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H172" s="4">
+      <c r="H172" s="3">
         <v>43188</v>
       </c>
-      <c r="I172" s="2"/>
       <c r="J172" s="1" t="s">
         <v>8</v>
       </c>
@@ -9548,22 +9486,21 @@
       <c r="C173" s="1">
         <v>6644</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="3">
         <v>27607</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="2">
         <v>45</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H173" s="4">
+      <c r="H173" s="3">
         <v>43220</v>
       </c>
-      <c r="I173" s="2"/>
       <c r="J173" s="1" t="s">
         <v>8</v>
       </c>
@@ -9590,22 +9527,21 @@
       <c r="C174" s="1">
         <v>6908</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="3">
         <v>30735</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="2">
         <v>37</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H174" s="4">
+      <c r="H174" s="3">
         <v>43188</v>
       </c>
-      <c r="I174" s="2"/>
       <c r="J174" s="1" t="s">
         <v>8</v>
       </c>
@@ -9632,22 +9568,24 @@
       <c r="C175" s="1">
         <v>14300</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175" s="3">
         <v>31173</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="2">
         <v>36</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H175" s="4">
+      <c r="H175" s="3">
         <v>41743</v>
       </c>
-      <c r="I175" s="2"/>
+      <c r="I175" s="3">
+        <v>44456</v>
+      </c>
       <c r="J175" s="1" t="s">
         <v>8</v>
       </c>
@@ -9674,22 +9612,21 @@
       <c r="C176" s="1">
         <v>13640</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176" s="3">
         <v>28613</v>
       </c>
-      <c r="F176" s="3">
+      <c r="F176" s="2">
         <v>43</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H176" s="4">
+      <c r="H176" s="3">
         <v>42389</v>
       </c>
-      <c r="I176" s="2"/>
       <c r="J176" s="1" t="s">
         <v>8</v>
       </c>
@@ -9716,22 +9653,21 @@
       <c r="C177" s="1">
         <v>13860</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="3">
         <v>33367</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="2">
         <v>30</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H177" s="4">
+      <c r="H177" s="3">
         <v>42049</v>
       </c>
-      <c r="I177" s="2"/>
       <c r="J177" s="1" t="s">
         <v>8</v>
       </c>
@@ -9758,22 +9694,21 @@
       <c r="C178" s="1">
         <v>14080</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="3">
         <v>27643</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F178" s="2">
         <v>45</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H178" s="4">
+      <c r="H178" s="3">
         <v>42855</v>
       </c>
-      <c r="I178" s="2"/>
       <c r="J178" s="1" t="s">
         <v>8</v>
       </c>
@@ -9800,22 +9735,21 @@
       <c r="C179" s="1">
         <v>6378</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="3">
         <v>33001</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="2">
         <v>31</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H179" s="4">
+      <c r="H179" s="3">
         <v>42133</v>
       </c>
-      <c r="I179" s="2"/>
       <c r="J179" s="1" t="s">
         <v>8</v>
       </c>
@@ -9842,22 +9776,21 @@
       <c r="C180" s="1">
         <v>6908</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="3">
         <v>26821</v>
       </c>
-      <c r="F180" s="3">
+      <c r="F180" s="2">
         <v>47</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H180" s="4">
+      <c r="H180" s="3">
         <v>41278</v>
       </c>
-      <c r="I180" s="2"/>
       <c r="J180" s="1" t="s">
         <v>8</v>
       </c>
@@ -9884,22 +9817,24 @@
       <c r="C181" s="1">
         <v>5720</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181" s="3">
         <v>34098</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="2">
         <v>28</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H181" s="4">
+      <c r="H181" s="3">
         <v>41659</v>
       </c>
-      <c r="I181" s="2"/>
+      <c r="I181" s="3">
+        <v>42505</v>
+      </c>
       <c r="J181" s="1" t="s">
         <v>8</v>
       </c>
@@ -9926,22 +9861,21 @@
       <c r="C182" s="1">
         <v>6048</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="3">
         <v>28826</v>
       </c>
-      <c r="F182" s="3">
+      <c r="F182" s="2">
         <v>42</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H182" s="4">
+      <c r="H182" s="3">
         <v>41917</v>
       </c>
-      <c r="I182" s="2"/>
       <c r="J182" s="1" t="s">
         <v>8</v>
       </c>
@@ -9968,22 +9902,21 @@
       <c r="C183" s="1">
         <v>9900</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D183" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183" s="3">
         <v>34150</v>
       </c>
-      <c r="F183" s="3">
+      <c r="F183" s="2">
         <v>27</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H183" s="4">
+      <c r="H183" s="3">
         <v>43220</v>
       </c>
-      <c r="I183" s="2"/>
       <c r="J183" s="1" t="s">
         <v>8</v>
       </c>
@@ -10010,22 +9943,21 @@
       <c r="C184" s="1">
         <v>9240</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184" s="3">
         <v>34661</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="2">
         <v>26</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H184" s="4">
+      <c r="H184" s="3">
         <v>43188</v>
       </c>
-      <c r="I184" s="2"/>
       <c r="J184" s="1" t="s">
         <v>8</v>
       </c>
@@ -10052,22 +9984,21 @@
       <c r="C185" s="1">
         <v>8140</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D185" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185" s="3">
         <v>34167</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="2">
         <v>27</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H185" s="4">
+      <c r="H185" s="3">
         <v>43220</v>
       </c>
-      <c r="I185" s="2"/>
       <c r="J185" s="1" t="s">
         <v>8</v>
       </c>
@@ -10094,22 +10025,24 @@
       <c r="C186" s="1">
         <v>8580</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E186" s="3">
         <v>31517</v>
       </c>
-      <c r="F186" s="3">
+      <c r="F186" s="2">
         <v>35</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H186" s="4">
+      <c r="H186" s="3">
         <v>43220</v>
       </c>
-      <c r="I186" s="2"/>
+      <c r="I186" s="3">
+        <v>43629</v>
+      </c>
       <c r="J186" s="1" t="s">
         <v>8</v>
       </c>
@@ -10136,22 +10069,21 @@
       <c r="C187" s="1">
         <v>9460</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E187" s="3">
         <v>33771</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="2">
         <v>28</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H187" s="4">
+      <c r="H187" s="3">
         <v>43188</v>
       </c>
-      <c r="I187" s="2"/>
       <c r="J187" s="1" t="s">
         <v>8</v>
       </c>
@@ -10178,22 +10110,21 @@
       <c r="C188" s="1">
         <v>5940</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E188" s="3">
         <v>30774</v>
       </c>
-      <c r="F188" s="3">
+      <c r="F188" s="2">
         <v>37</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H188" s="4">
+      <c r="H188" s="3">
         <v>43146</v>
       </c>
-      <c r="I188" s="2"/>
       <c r="J188" s="1" t="s">
         <v>8</v>
       </c>
@@ -10220,22 +10151,24 @@
       <c r="C189" s="1">
         <v>10340</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="D189" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="3">
         <v>31515</v>
       </c>
-      <c r="F189" s="3">
+      <c r="F189" s="2">
         <v>35</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H189" s="4">
+      <c r="H189" s="3">
         <v>43007</v>
       </c>
-      <c r="I189" s="2"/>
+      <c r="I189" s="3">
+        <v>45080</v>
+      </c>
       <c r="J189" s="1" t="s">
         <v>8</v>
       </c>
@@ -10262,22 +10195,24 @@
       <c r="C190" s="1">
         <v>10802</v>
       </c>
-      <c r="D190" s="4" t="s">
+      <c r="D190" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E190" s="4">
+      <c r="E190" s="3">
         <v>27118</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="2">
         <v>47</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H190" s="4">
+      <c r="H190" s="3">
         <v>43188</v>
       </c>
-      <c r="I190" s="2"/>
+      <c r="I190" s="3">
+        <v>44568</v>
+      </c>
       <c r="J190" s="1" t="s">
         <v>8</v>
       </c>
@@ -10304,22 +10239,24 @@
       <c r="C191" s="1">
         <v>10000</v>
       </c>
-      <c r="D191" s="4" t="s">
+      <c r="D191" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="3">
         <v>33767</v>
       </c>
-      <c r="F191" s="3">
+      <c r="F191" s="2">
         <v>28</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H191" s="4">
+      <c r="H191" s="3">
         <v>43505</v>
       </c>
-      <c r="I191" s="2"/>
+      <c r="I191" s="3">
+        <v>44783</v>
+      </c>
       <c r="J191" s="1" t="s">
         <v>8</v>
       </c>
@@ -10346,22 +10283,21 @@
       <c r="C192" s="1">
         <v>10500</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192" s="3">
         <v>27508</v>
       </c>
-      <c r="F192" s="3">
+      <c r="F192" s="2">
         <v>46</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H192" s="4">
+      <c r="H192" s="3">
         <v>43497</v>
       </c>
-      <c r="I192" s="2"/>
       <c r="J192" s="1" t="s">
         <v>8</v>
       </c>
@@ -10388,22 +10324,24 @@
       <c r="C193" s="1">
         <v>10500</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D193" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193" s="3">
         <v>31630</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="2">
         <v>34</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H193" s="4">
+      <c r="H193" s="3">
         <v>43510</v>
       </c>
-      <c r="I193" s="2"/>
+      <c r="I193" s="3">
+        <v>44783</v>
+      </c>
       <c r="J193" s="1" t="s">
         <v>8</v>
       </c>
@@ -10430,22 +10368,21 @@
       <c r="C194" s="1">
         <v>10472</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194" s="3">
         <v>30824</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="2">
         <v>36</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H194" s="4">
+      <c r="H194" s="3">
         <v>43018</v>
       </c>
-      <c r="I194" s="2"/>
       <c r="J194" s="1" t="s">
         <v>8</v>
       </c>
@@ -10472,22 +10409,21 @@
       <c r="C195" s="1">
         <v>12320</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D195" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E195" s="3">
         <v>33726</v>
       </c>
-      <c r="F195" s="3">
+      <c r="F195" s="2">
         <v>29</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H195" s="4">
+      <c r="H195" s="3">
         <v>42684</v>
       </c>
-      <c r="I195" s="2"/>
       <c r="J195" s="1" t="s">
         <v>8</v>
       </c>
@@ -10514,22 +10450,24 @@
       <c r="C196" s="1">
         <v>12566</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D196" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196" s="3">
         <v>30807</v>
       </c>
-      <c r="F196" s="3">
+      <c r="F196" s="2">
         <v>37</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H196" s="4">
+      <c r="H196" s="3">
         <v>42248</v>
       </c>
-      <c r="I196" s="2"/>
+      <c r="I196" s="3">
+        <v>43944</v>
+      </c>
       <c r="J196" s="1" t="s">
         <v>8</v>
       </c>
@@ -10556,22 +10494,21 @@
       <c r="C197" s="1">
         <v>12212</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D197" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E197" s="3">
         <v>33794</v>
       </c>
-      <c r="F197" s="3">
+      <c r="F197" s="2">
         <v>28</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H197" s="4">
+      <c r="H197" s="3">
         <v>42684</v>
       </c>
-      <c r="I197" s="2"/>
       <c r="J197" s="1" t="s">
         <v>8</v>
       </c>
@@ -10598,22 +10535,24 @@
       <c r="C198" s="1">
         <v>10835</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="D198" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E198" s="3">
         <v>33442</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="2">
         <v>29</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H198" s="4">
+      <c r="H198" s="3">
         <v>42135</v>
       </c>
-      <c r="I198" s="2"/>
+      <c r="I198" s="3">
+        <v>43317</v>
+      </c>
       <c r="J198" s="1" t="s">
         <v>8</v>
       </c>
@@ -10640,22 +10579,24 @@
       <c r="C199" s="1">
         <v>10560</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D199" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199" s="3">
         <v>32297</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="2">
         <v>32</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H199" s="4">
+      <c r="H199" s="3">
         <v>42922</v>
       </c>
-      <c r="I199" s="2"/>
+      <c r="I199" s="3">
+        <v>44207</v>
+      </c>
       <c r="J199" s="1" t="s">
         <v>8</v>
       </c>
@@ -10682,22 +10623,24 @@
       <c r="C200" s="1">
         <v>5940</v>
       </c>
-      <c r="D200" s="4" t="s">
+      <c r="D200" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="3">
         <v>26258</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="2">
         <v>49</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H200" s="4">
+      <c r="H200" s="3">
         <v>41865</v>
       </c>
-      <c r="I200" s="2"/>
+      <c r="I200" s="3">
+        <v>44666</v>
+      </c>
       <c r="J200" s="1" t="s">
         <v>8</v>
       </c>
@@ -10724,22 +10667,21 @@
       <c r="C201" s="1">
         <v>7689</v>
       </c>
-      <c r="D201" s="4" t="s">
+      <c r="D201" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201" s="3">
         <v>30786</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="2">
         <v>37</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H201" s="4">
+      <c r="H201" s="3">
         <v>41029</v>
       </c>
-      <c r="I201" s="2"/>
       <c r="J201" s="1" t="s">
         <v>8</v>
       </c>
@@ -10766,22 +10708,21 @@
       <c r="C202" s="1">
         <v>7689</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="D202" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E202" s="3">
         <v>33696</v>
       </c>
-      <c r="F202" s="3">
+      <c r="F202" s="2">
         <v>29</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H202" s="4">
+      <c r="H202" s="3">
         <v>43146</v>
       </c>
-      <c r="I202" s="2"/>
       <c r="J202" s="1" t="s">
         <v>8</v>
       </c>
@@ -10808,22 +10749,21 @@
       <c r="C203" s="1">
         <v>13486</v>
       </c>
-      <c r="D203" s="4" t="s">
+      <c r="D203" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E203" s="3">
         <v>33394</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="2">
         <v>29</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H203" s="4">
+      <c r="H203" s="3">
         <v>43646</v>
       </c>
-      <c r="I203" s="2"/>
       <c r="J203" s="1" t="s">
         <v>8</v>
       </c>
@@ -10850,22 +10790,21 @@
       <c r="C204" s="1">
         <v>11902</v>
       </c>
-      <c r="D204" s="4" t="s">
+      <c r="D204" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E204" s="3">
         <v>20836</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F204" s="2">
         <v>54</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H204" s="4">
+      <c r="H204" s="3">
         <v>43018</v>
       </c>
-      <c r="I204" s="2"/>
       <c r="J204" s="1" t="s">
         <v>8</v>
       </c>
@@ -10892,22 +10831,24 @@
       <c r="C205" s="1">
         <v>12364</v>
       </c>
-      <c r="D205" s="4" t="s">
+      <c r="D205" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205" s="3">
         <v>33350</v>
       </c>
-      <c r="F205" s="3">
+      <c r="F205" s="2">
         <v>30</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H205" s="4">
+      <c r="H205" s="3">
         <v>43018</v>
       </c>
-      <c r="I205" s="2"/>
+      <c r="I205" s="3">
+        <v>44679</v>
+      </c>
       <c r="J205" s="1" t="s">
         <v>8</v>
       </c>
@@ -10934,22 +10875,24 @@
       <c r="C206" s="1">
         <v>11836</v>
       </c>
-      <c r="D206" s="4" t="s">
+      <c r="D206" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206" s="3">
         <v>32386</v>
       </c>
-      <c r="F206" s="3">
+      <c r="F206" s="2">
         <v>32</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H206" s="4">
+      <c r="H206" s="3">
         <v>43646</v>
       </c>
-      <c r="I206" s="2"/>
+      <c r="I206" s="3">
+        <v>44604</v>
+      </c>
       <c r="J206" s="1" t="s">
         <v>8</v>
       </c>
@@ -10976,22 +10919,21 @@
       <c r="C207" s="1">
         <v>11660</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="D207" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207" s="3">
         <v>25819</v>
       </c>
-      <c r="F207" s="3">
+      <c r="F207" s="2">
         <v>50</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H207" s="4">
+      <c r="H207" s="3">
         <v>43018</v>
       </c>
-      <c r="I207" s="2"/>
       <c r="J207" s="1" t="s">
         <v>8</v>
       </c>
@@ -11018,22 +10960,21 @@
       <c r="C208" s="1">
         <v>12144</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D208" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E208" s="3">
         <v>30351</v>
       </c>
-      <c r="F208" s="3">
+      <c r="F208" s="2">
         <v>38</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H208" s="4">
+      <c r="H208" s="3">
         <v>43188</v>
       </c>
-      <c r="I208" s="2"/>
       <c r="J208" s="1" t="s">
         <v>8</v>
       </c>
